--- a/Hydro_FLH.xlsx
+++ b/Hydro_FLH.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20368"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schoeniger\Documents\Balmorel\Hydro capacities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geipel\Documents\GitHub\EEG-policy modelling\EEG-Tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D297067-EEFE-451C-A38D-6A8FB94BFDAC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="9975" xr2:uid="{388CB1F8-8BDF-480B-B027-C86C36D9BA71}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="9975" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Tabelle2!$A$2:$C$2</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="43">
   <si>
     <t xml:space="preserve">AL                  </t>
   </si>
@@ -159,7 +162,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -505,11 +508,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B032806A-BC4E-4041-B836-5D46EC1868F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="A1:C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -974,4 +977,477 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2403.2042723631507</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2610.9205260148656</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="1">
+        <v>5592.1787709497203</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1328.9839313761024</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3737.1794871794873</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3071.0985626283368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3333.3333333333335</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1263.9318885448915</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2395.4372623574141</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1100.0080327737166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2871.9412677739956</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2910.854540660298</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3902.3569023569021</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1142.3396514195833</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3184.588881462867</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1926.3532642295802</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3010.7526881720428</v>
+      </c>
+      <c r="C11" s="1" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2077.6255707762557</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1">
+        <v>3750</v>
+      </c>
+      <c r="C13" s="1" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1">
+        <v>6326.666666666667</v>
+      </c>
+      <c r="C14" s="1">
+        <v>4522.6415094339627</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2080.4269760588063</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2108.6156529265863</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="1">
+        <v>4060.0229313161876</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3994.9558637709774</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2945.5634899978645</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2985.4743067565114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="1">
+        <v>3883.0032243205897</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1531.6558198122543</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1">
+        <v>4377.9663100946764</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3355.4858934169279</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="1">
+        <v>4321.4285714285716</v>
+      </c>
+      <c r="C20" s="1">
+        <v>4357.1428571428569</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="1">
+        <v>3843.75</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1178.0487804878048</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2393.3335290612854</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2425.761925167782</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2466.4857482944626</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2499.9053153349855</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="1">
+        <v>3206.8965517241377</v>
+      </c>
+      <c r="C24" s="1">
+        <v>841.32693844924063</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2941.1764705882356</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1504.9683830171634</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2653.8461538461538</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1828.1500480923373</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="1" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C27" s="1" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="1">
+        <v>2456.1403508771932</v>
+      </c>
+      <c r="C28" s="1">
+        <v>864.02966625463534</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="1">
+        <v>2399.1031390134531</v>
+      </c>
+      <c r="C29" s="1">
+        <v>3054.3478260869565</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2475</v>
+      </c>
+      <c r="C30" s="1">
+        <v>2339.7435897435898</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="1">
+        <v>2666.6666666666665</v>
+      </c>
+      <c r="C31" s="1" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="1">
+        <v>4595.4766820822069</v>
+      </c>
+      <c r="C32" s="1">
+        <v>4657.7429447070781</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="1">
+        <v>3328.6908077994426</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1595.2868852459017</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="1">
+        <v>2566.27812083044</v>
+      </c>
+      <c r="C34" s="1">
+        <v>2601.0498230102544</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="1">
+        <v>354.88647581441262</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="1">
+        <v>5105.3467443091586</v>
+      </c>
+      <c r="C36" s="1">
+        <v>2197.8691019786911</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="1">
+        <v>4645.5935283845911</v>
+      </c>
+      <c r="C37" s="1">
+        <v>3667.4128282393458</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="1">
+        <v>4270.1612903225814</v>
+      </c>
+      <c r="C38" s="1">
+        <v>2302.7027027027029</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="1">
+        <v>3520.0982581509602</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1814.0069438433502</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" s="1" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1017.8571428571428</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" s="1">
+        <v>2264.2706131078226</v>
+      </c>
+      <c r="C41" s="1">
+        <v>2918.5425749621854</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="1">
+        <v>3260.869565217391</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:C2">
+    <sortState ref="A3:C42">
+      <sortCondition ref="A2"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>